--- a/data/impacts/impacts_recipe_2.xlsx
+++ b/data/impacts/impacts_recipe_2.xlsx
@@ -440,12 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.5947738</v>
+        <v>1.543815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5020464</v>
+        <v>0.371455</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4769798</v>
+        <v>0.43149</v>
       </c>
     </row>
     <row r="6">
@@ -465,47 +465,47 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.2703572</v>
+        <v>0.935825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3942860000000001</v>
+        <v>0.37427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1928082</v>
+        <v>0.09973499999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1682736</v>
+        <v>0.097335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1613046</v>
+        <v>0.13545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.012210108</v>
+        <v>0.00755775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.011705524</v>
+        <v>0.00846015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>575.7572</v>
+        <v>455.645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17757.5144</v>
+        <v>10832.175</v>
       </c>
     </row>
   </sheetData>
